--- a/01.doc/06.Test/用例需求分析2.xlsx
+++ b/01.doc/06.Test/用例需求分析2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10067"/>
+    <workbookView windowWidth="22943" windowHeight="10067" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="员工信息修改" sheetId="4" r:id="rId4"/>
     <sheet name="管理员订餐" sheetId="5" r:id="rId5"/>
     <sheet name="打扫页面" sheetId="6" r:id="rId6"/>
+    <sheet name="总人数" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>用户名</t>
   </si>
@@ -385,6 +386,18 @@
   </si>
   <si>
     <t>a,b为今日打扫人员</t>
+  </si>
+  <si>
+    <t>用户1</t>
+  </si>
+  <si>
+    <t>用户2</t>
+  </si>
+  <si>
+    <t>用户3</t>
+  </si>
+  <si>
+    <t>总人数</t>
   </si>
 </sst>
 </file>
@@ -392,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -412,20 +425,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -436,6 +435,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +496,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -473,7 +510,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,7 +532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,32 +562,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +578,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,31 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,103 +656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +710,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,23 +842,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,17 +852,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -900,11 +887,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,133 +941,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1417,7 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -3555,7 +3568,6 @@
       <c r="A2">
         <v>123</v>
       </c>
-      <c r="B2"/>
       <c r="F2" t="s">
         <v>58</v>
       </c>
@@ -3747,7 +3759,6 @@
       <c r="B18">
         <v>111</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -4182,7 +4193,6 @@
       <c r="B49">
         <v>111</v>
       </c>
-      <c r="C49"/>
       <c r="D49" t="s">
         <v>9</v>
       </c>
@@ -8540,4 +8550,71 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>